--- a/outlines/COMP 1602.xlsx
+++ b/outlines/COMP 1602.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25027"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E774B30D-F359-45D8-B58F-89734308A362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F376F5C6-A444-4CED-A225-86C3E031307F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -647,7 +647,7 @@
     <t>Coursework Exam 2</t>
   </si>
   <si>
-    <t>1 - 10.</t>
+    <t>1, 2, 3, 4, 5, 6, 7, 8, 9, 10</t>
   </si>
   <si>
     <t>Final Examination</t>
@@ -1259,20 +1259,20 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -1876,8 +1876,8 @@
   </sheetPr>
   <dimension ref="A1:F96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B78" workbookViewId="0">
-      <selection activeCell="E92" sqref="E92"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2101,13 +2101,13 @@
       <c r="B17" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="C17" s="60" t="s">
+      <c r="C17" s="58" t="s">
         <v>74</v>
       </c>
       <c r="D17" s="63" t="b">
         <v>1</v>
       </c>
-      <c r="E17" s="62" t="s">
+      <c r="E17" s="59" t="s">
         <v>78</v>
       </c>
       <c r="F17" s="9"/>
@@ -2267,7 +2267,7 @@
       <c r="F30" s="9"/>
     </row>
     <row r="31" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A31" s="58" t="s">
+      <c r="A31" s="60" t="s">
         <v>92</v>
       </c>
       <c r="B31" s="64"/>
@@ -2397,7 +2397,7 @@
       <c r="F40" s="8"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A41" s="58" t="s">
+      <c r="A41" s="60" t="s">
         <v>116</v>
       </c>
       <c r="B41" s="64"/>
@@ -2520,7 +2520,7 @@
       <c r="F50" s="8"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A51" s="58" t="s">
+      <c r="A51" s="60" t="s">
         <v>129</v>
       </c>
       <c r="B51" s="64"/>
@@ -2760,13 +2760,13 @@
         <v>164</v>
       </c>
       <c r="B66" s="42"/>
-      <c r="C66" s="60" t="s">
+      <c r="C66" s="58" t="s">
         <v>74</v>
       </c>
       <c r="D66" s="63" t="b">
         <v>1</v>
       </c>
-      <c r="E66" s="61" t="s">
+      <c r="E66" s="62" t="s">
         <v>91</v>
       </c>
       <c r="F66" s="36"/>
@@ -2800,13 +2800,13 @@
         <v>166</v>
       </c>
       <c r="B70" s="44"/>
-      <c r="C70" s="60" t="s">
+      <c r="C70" s="58" t="s">
         <v>74</v>
       </c>
       <c r="D70" s="63" t="b">
         <v>1</v>
       </c>
-      <c r="E70" s="59"/>
+      <c r="E70" s="61"/>
       <c r="F70" s="36"/>
     </row>
     <row r="71" spans="1:6" ht="18" customHeight="1">
@@ -2844,13 +2844,13 @@
         <v>170</v>
       </c>
       <c r="B74" s="48"/>
-      <c r="C74" s="60" t="s">
+      <c r="C74" s="58" t="s">
         <v>74</v>
       </c>
       <c r="D74" s="63" t="b">
         <v>1</v>
       </c>
-      <c r="E74" s="59"/>
+      <c r="E74" s="61"/>
       <c r="F74" s="36"/>
     </row>
     <row r="75" spans="1:6" ht="15" customHeight="1">
@@ -3205,11 +3205,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="C17:C29"/>
-    <mergeCell ref="D17:D29"/>
-    <mergeCell ref="E17:E29"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="D32:D40"/>
     <mergeCell ref="A41:F41"/>
     <mergeCell ref="A51:F51"/>
     <mergeCell ref="E70:E73"/>
@@ -3221,6 +3216,11 @@
     <mergeCell ref="D70:D73"/>
     <mergeCell ref="C74:C76"/>
     <mergeCell ref="D74:D76"/>
+    <mergeCell ref="C17:C29"/>
+    <mergeCell ref="D17:D29"/>
+    <mergeCell ref="E17:E29"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="D32:D40"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E14" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
